--- a/barchartInfo.xlsx
+++ b/barchartInfo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Student\VP-projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dante\OneDrive\Desktop\DataVisualisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C263C2C-2B42-4AEC-917D-C13F40F9E54C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70B25DE-41D5-44DC-AACE-B80434A8AA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025" xr2:uid="{5358E92C-6FE8-4A09-8ADA-492F29AC9ACE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5358E92C-6FE8-4A09-8ADA-492F29AC9ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_n_-;\-* #,##0.00\ _k_n_-;_-* &quot;-&quot;??\ _k_n_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_n_-;\-* #,##0.00\ _k_n_-;_-* &quot;-&quot;??\ _k_n_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -152,7 +152,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -161,8 +161,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
-    <cellStyle name="Zarez" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -477,7 +477,7 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
